--- a/dados/lancamentos_totais.xlsx
+++ b/dados/lancamentos_totais.xlsx
@@ -1,34 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\OneDrive\Documentos\GitHub\Or-amentos-prefeitura\dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB24A1-877B-451E-A88B-38B14F82A507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Total (R$)</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,84 +79,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,52 +394,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Total (R$)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01/09/2025</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>01/09/2025</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>192.24</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B3" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B6" s="1">
+        <v>517.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B7" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B9" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B13" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B14" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/dados/lancamentos_totais.xlsx
+++ b/dados/lancamentos_totais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\OneDrive\Documentos\GitHub\Or-amentos-prefeitura\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB24A1-877B-451E-A88B-38B14F82A507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E524BB-843C-4F87-B9D1-AE61EF0B18DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -30,6 +31,42 @@
   <si>
     <t>02/09/2025</t>
   </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>tiguan</t>
+  </si>
+  <si>
+    <t>carro</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>gran siena</t>
+  </si>
+  <si>
+    <t>gol</t>
+  </si>
+  <si>
+    <t>palio</t>
+  </si>
+  <si>
+    <t>tiggo 7</t>
+  </si>
+  <si>
+    <t>AZM2I32</t>
+  </si>
+  <si>
+    <t>Bora</t>
+  </si>
 </sst>
 </file>
 
@@ -38,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,7 +93,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,21 +127,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -108,6 +227,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Total (R$)" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{F9ED3B84-91BE-46F3-9CC0-6496319907FC}" name="carro" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,27 +526,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -423,7 +559,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45902</v>
       </c>
@@ -431,7 +567,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45902</v>
       </c>
@@ -439,7 +575,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45902</v>
       </c>
@@ -447,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45902</v>
       </c>
@@ -455,7 +591,7 @@
         <v>517.12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45902</v>
       </c>
@@ -463,7 +599,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45902</v>
       </c>
@@ -471,7 +607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45903</v>
       </c>
@@ -479,7 +615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45903</v>
       </c>
@@ -487,7 +623,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45904</v>
       </c>
@@ -495,7 +631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45904</v>
       </c>
@@ -503,7 +639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45904</v>
       </c>
@@ -511,7 +647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45904</v>
       </c>
@@ -519,7 +655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45904</v>
       </c>
@@ -527,8 +663,1505 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>326.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B18" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B19" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B20" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B23" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B25" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B26" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4448.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B30" s="1">
+        <v>666.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B33" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B34" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B37" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5456.7000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B40" s="1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B43" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B44" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>328.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2999.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B47" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B48" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B49" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B51" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B52" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B53" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B54" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B55" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B57" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B59" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3398</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B61" s="1">
+        <v>270</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B62" s="1">
+        <v>492</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B63" s="1">
+        <v>35</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B64" s="1">
+        <v>292.68</v>
+      </c>
+      <c r="C64" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B65" s="1">
+        <v>145</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B66" s="1">
+        <v>705</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B67" s="1">
+        <v>320</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B68" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B69" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B70" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B71" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B72" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B73" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B75" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B76" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B77" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B78" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B79" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B80" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B82" s="1">
+        <v>395.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B83" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B84" s="1">
+        <v>345</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B85" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B86" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B87" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B88" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B89" s="1">
+        <v>917.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B91" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B93" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B94" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B95" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B96" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B97" s="1">
+        <v>384.67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B98" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B99" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B101" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B102" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B103" s="1">
+        <v>79.959999999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B104" s="1">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B105" s="1">
+        <v>233.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B106" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B107" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B108" s="1">
+        <v>479.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B109" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B111" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B112" s="1">
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B113" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B114" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B115" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B116" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B117" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B118" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B119" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45920</v>
+      </c>
+      <c r="B120" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B121" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B122" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B123" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B124" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B125" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B126" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B127" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B128" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B129" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B131" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B133" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B134" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B135" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B136" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B137" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B138" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B139" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B140" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B142" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B144" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B145" s="1">
+        <v>219.08</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B146" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B148" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B149" s="1">
+        <v>10499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B150" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B152" s="1">
+        <v>773.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B154" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B155" s="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B156" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B157" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B158" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B160" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B161" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B162" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B163" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B164" s="1">
+        <v>490</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B166" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B167" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B168" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4405.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B170" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B171" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B172" s="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B174" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B175" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B176" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B177" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B178" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B180" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B181" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B182" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B183" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B184" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B185" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B187" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B188" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B189" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B190" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B191" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B193" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B194" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B195" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B196" s="1">
+        <v>455</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B197" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="1">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/dados/lancamentos_totais.xlsx
+++ b/dados/lancamentos_totais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andra\OneDrive\Documentos\GitHub\Or-amentos-prefeitura\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E524BB-843C-4F87-B9D1-AE61EF0B18DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49254D-F3DE-4F6B-BB06-9D79307700C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -138,6 +138,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -526,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,8 +2154,411 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>45936</v>
+      </c>
       <c r="B198" s="1">
         <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B199" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B200" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B201" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B202" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B203" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B204" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B205" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B206" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B208" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B209" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B210" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B211" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B212" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B213" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B214" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B215" s="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B216" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B217" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B218" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B219" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B220" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B221" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B223" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B224" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B225" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B226" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B228" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B229" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B230" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B231" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B232" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B233" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B234" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B235" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B236" s="6">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B237" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B238" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B239" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B240" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B241" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B242" s="1">
+        <v>491.56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B243" s="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B244" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B245" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B247" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45945</v>
+      </c>
+      <c r="B248" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
